--- a/mens.xlsx
+++ b/mens.xlsx
@@ -144,8 +144,8 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C65" activeCellId="0" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -917,7 +917,10 @@
       <c r="A64" s="2" t="n">
         <v>43184</v>
       </c>
-      <c r="C64" s="2"/>
+      <c r="C64" s="2" t="n">
+        <f aca="false">A64+22</f>
+        <v>43206</v>
+      </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>

--- a/mens.xlsx
+++ b/mens.xlsx
@@ -145,7 +145,7 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C65" activeCellId="0" sqref="C65"/>
+      <selection pane="topLeft" activeCell="H63" activeCellId="0" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -917,16 +917,21 @@
       <c r="A64" s="2" t="n">
         <v>43184</v>
       </c>
-      <c r="C64" s="2" t="n">
-        <f aca="false">A64+22</f>
-        <v>43206</v>
+      <c r="B64" s="0" t="n">
+        <f aca="false">A65-A64</f>
+        <v>23</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2"/>
-      <c r="C65" s="2"/>
+      <c r="A65" s="2" t="n">
+        <v>43207</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <f aca="false">A65+22</f>
+        <v>43229</v>
+      </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
@@ -941,7 +946,7 @@
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <f aca="false">SUM(B3:B264)/COUNT(B3:B264)</f>
-        <v>22.5409836065574</v>
+        <v>22.5483870967742</v>
       </c>
     </row>
   </sheetData>

--- a/mens.xlsx
+++ b/mens.xlsx
@@ -380,10 +380,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -798,7 +798,7 @@
         <v>23</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" ref="C35:C66" si="1">A35+B35</f>
+        <f t="shared" ref="C35:C59" si="1">A35+B35</f>
         <v>42547</v>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
         <v>43113</v>
       </c>
       <c r="B61">
-        <f t="shared" ref="B61:B69" si="2">A62-A61</f>
+        <f t="shared" ref="B61:B70" si="2">A62-A61</f>
         <v>26</v>
       </c>
       <c r="C61" s="2"/>
@@ -1225,25 +1225,37 @@
       <c r="A70" s="2">
         <v>43321</v>
       </c>
-      <c r="C70" s="2">
-        <f>A70+22</f>
-        <v>43343</v>
-      </c>
+      <c r="B70">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="C70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
+      <c r="A71" s="2">
+        <v>43343</v>
+      </c>
+      <c r="C71" s="2">
+        <f>A71+22</f>
+        <v>43365</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D72" t="s">
+      <c r="A72" s="2"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D73">
-        <f>SUM(B3:B269)/COUNT(B3:B269)</f>
-        <v>22.567164179104477</v>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <f>SUM(B3:B270)/COUNT(B3:B270)</f>
+        <v>22.558823529411764</v>
       </c>
     </row>
   </sheetData>

--- a/mens.xlsx
+++ b/mens.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bk\bk_shared\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
@@ -86,14 +91,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -131,9 +139,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -168,7 +176,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,7 +211,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -380,30 +388,30 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>41786</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>41808</v>
       </c>
@@ -416,7 +424,7 @@
         <v>41830</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>41830</v>
       </c>
@@ -429,7 +437,7 @@
         <v>41852</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>41854</v>
       </c>
@@ -442,7 +450,7 @@
         <v>41878</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>41877</v>
       </c>
@@ -454,7 +462,7 @@
         <v>41900</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>41900</v>
       </c>
@@ -466,7 +474,7 @@
         <v>41923</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>41923</v>
       </c>
@@ -478,7 +486,7 @@
         <v>41946</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>41946</v>
       </c>
@@ -490,7 +498,7 @@
         <v>41969</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>41968</v>
       </c>
@@ -502,7 +510,7 @@
         <v>41991</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>41992</v>
       </c>
@@ -514,7 +522,7 @@
         <v>42015</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>42014</v>
       </c>
@@ -526,7 +534,7 @@
         <v>42037</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>42037</v>
       </c>
@@ -538,7 +546,7 @@
         <v>42058</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>42058</v>
       </c>
@@ -550,7 +558,7 @@
         <v>42080</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>42080</v>
       </c>
@@ -562,7 +570,7 @@
         <v>42106</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>42107</v>
       </c>
@@ -574,7 +582,7 @@
         <v>42130</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>42130</v>
       </c>
@@ -586,7 +594,7 @@
         <v>42153</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>42152</v>
       </c>
@@ -598,7 +606,7 @@
         <v>42175</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>42175</v>
       </c>
@@ -610,7 +618,7 @@
         <v>42197</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>42197</v>
       </c>
@@ -622,7 +630,7 @@
         <v>42220</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>42220</v>
       </c>
@@ -634,7 +642,7 @@
         <v>42241</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>42241</v>
       </c>
@@ -646,7 +654,7 @@
         <v>42264</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>42264</v>
       </c>
@@ -658,7 +666,7 @@
         <v>42279</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>42279</v>
       </c>
@@ -670,7 +678,7 @@
         <v>42303</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>42303</v>
       </c>
@@ -682,7 +690,7 @@
         <v>42326</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>42326</v>
       </c>
@@ -694,7 +702,7 @@
         <v>42348</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>42348</v>
       </c>
@@ -706,7 +714,7 @@
         <v>42371</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>42371</v>
       </c>
@@ -718,7 +726,7 @@
         <v>42394</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>42394</v>
       </c>
@@ -730,7 +738,7 @@
         <v>42417</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>42417</v>
       </c>
@@ -742,7 +750,7 @@
         <v>42439</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>42439</v>
       </c>
@@ -754,7 +762,7 @@
         <v>42455</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>42455</v>
       </c>
@@ -766,7 +774,7 @@
         <v>42478</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>42478</v>
       </c>
@@ -778,7 +786,7 @@
         <v>42501</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>42501</v>
       </c>
@@ -790,7 +798,7 @@
         <v>42524</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>42524</v>
       </c>
@@ -802,7 +810,7 @@
         <v>42547</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>42547</v>
       </c>
@@ -814,7 +822,7 @@
         <v>42570</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>42570</v>
       </c>
@@ -826,7 +834,7 @@
         <v>42593</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>42593</v>
       </c>
@@ -838,7 +846,7 @@
         <v>42616</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>42616</v>
       </c>
@@ -850,7 +858,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>42639</v>
       </c>
@@ -862,7 +870,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>42661</v>
       </c>
@@ -874,7 +882,7 @@
         <v>42684</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>42684</v>
       </c>
@@ -886,7 +894,7 @@
         <v>42707</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42707</v>
       </c>
@@ -898,7 +906,7 @@
         <v>42725</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42725</v>
       </c>
@@ -910,7 +918,7 @@
         <v>42748</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42748</v>
       </c>
@@ -922,7 +930,7 @@
         <v>42771</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>42771</v>
       </c>
@@ -934,7 +942,7 @@
         <v>42794</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>42794</v>
       </c>
@@ -946,7 +954,7 @@
         <v>42817</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>42817</v>
       </c>
@@ -958,7 +966,7 @@
         <v>42838</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>42838</v>
       </c>
@@ -970,7 +978,7 @@
         <v>42861</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>42861</v>
       </c>
@@ -982,7 +990,7 @@
         <v>42886</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>42887</v>
       </c>
@@ -994,7 +1002,7 @@
         <v>42909</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <f>C51</f>
         <v>42909</v>
@@ -1007,7 +1015,7 @@
         <v>42932</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>42932</v>
       </c>
@@ -1019,7 +1027,7 @@
         <v>42956</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>42956</v>
       </c>
@@ -1031,7 +1039,7 @@
         <v>42978</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>42978</v>
       </c>
@@ -1043,7 +1051,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>43000</v>
       </c>
@@ -1057,7 +1065,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>43023</v>
       </c>
@@ -1071,7 +1079,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>43048</v>
       </c>
@@ -1088,7 +1096,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>43071</v>
       </c>
@@ -1102,7 +1110,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>43089</v>
       </c>
@@ -1115,19 +1123,19 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>43113</v>
       </c>
       <c r="B61">
-        <f t="shared" ref="B61:B70" si="2">A62-A61</f>
+        <f t="shared" ref="B61:B71" si="2">A62-A61</f>
         <v>26</v>
       </c>
       <c r="C61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>43139</v>
       </c>
@@ -1139,7 +1147,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>43162</v>
       </c>
@@ -1151,7 +1159,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>43184</v>
       </c>
@@ -1162,7 +1170,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>43207</v>
       </c>
@@ -1173,7 +1181,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>43222</v>
       </c>
@@ -1185,7 +1193,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>43244</v>
       </c>
@@ -1197,7 +1205,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>43272</v>
       </c>
@@ -1209,7 +1217,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>43295</v>
       </c>
@@ -1221,7 +1229,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>43321</v>
       </c>
@@ -1233,29 +1241,42 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>43343</v>
       </c>
-      <c r="C71" s="2">
-        <f>A71+22</f>
-        <v>43365</v>
-      </c>
+      <c r="B71">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="C71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D73" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>43364</v>
+      </c>
+      <c r="C72" s="2">
+        <f>A72+22</f>
+        <v>43386</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D74">
-        <f>SUM(B3:B270)/COUNT(B3:B270)</f>
-        <v>22.558823529411764</v>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <f>SUM(B3:B272)/COUNT(B3:B272)</f>
+        <v>22.536231884057973</v>
       </c>
     </row>
   </sheetData>

--- a/mens.xlsx
+++ b/mens.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16382" windowHeight="8198" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Beginn</t>
-  </si>
-  <si>
-    <t>***</t>
   </si>
   <si>
     <t>Durchschnitt</t>
@@ -390,28 +387,28 @@
   </sheetPr>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="12.85" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="3" max="1025" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="3" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>41786</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>41808</v>
       </c>
@@ -419,12 +416,9 @@
         <f>A3-A2</f>
         <v>22</v>
       </c>
-      <c r="C3" s="2">
-        <f t="shared" ref="C3:C34" si="0">A3+B3</f>
-        <v>41830</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>41830</v>
       </c>
@@ -432,12 +426,9 @@
         <f>A4-A3</f>
         <v>22</v>
       </c>
-      <c r="C4" s="2">
-        <f t="shared" si="0"/>
-        <v>41852</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>41854</v>
       </c>
@@ -445,838 +436,675 @@
         <f>A5-A4</f>
         <v>24</v>
       </c>
-      <c r="C5" s="2">
-        <f t="shared" si="0"/>
-        <v>41878</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>41877</v>
       </c>
       <c r="B6">
         <v>23</v>
       </c>
-      <c r="C6" s="2">
-        <f t="shared" si="0"/>
-        <v>41900</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>41900</v>
       </c>
       <c r="B7">
         <v>23</v>
       </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>41923</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>41923</v>
       </c>
       <c r="B8">
         <v>23</v>
       </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>41946</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>41946</v>
       </c>
       <c r="B9">
         <v>23</v>
       </c>
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
-        <v>41969</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>41968</v>
       </c>
       <c r="B10">
         <v>23</v>
       </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>41991</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>41992</v>
       </c>
       <c r="B11">
         <v>23</v>
       </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
-        <v>42015</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>42014</v>
       </c>
       <c r="B12">
         <v>23</v>
       </c>
-      <c r="C12" s="2">
-        <f t="shared" si="0"/>
-        <v>42037</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>42037</v>
       </c>
       <c r="B13">
         <v>21</v>
       </c>
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
-        <v>42058</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>42058</v>
       </c>
       <c r="B14">
         <v>22</v>
       </c>
-      <c r="C14" s="2">
-        <f t="shared" si="0"/>
-        <v>42080</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>42080</v>
       </c>
       <c r="B15">
         <v>26</v>
       </c>
-      <c r="C15" s="2">
-        <f t="shared" si="0"/>
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>42107</v>
       </c>
       <c r="B16">
         <v>23</v>
       </c>
-      <c r="C16" s="2">
-        <f t="shared" si="0"/>
-        <v>42130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>42130</v>
       </c>
       <c r="B17">
         <v>23</v>
       </c>
-      <c r="C17" s="2">
-        <f t="shared" si="0"/>
-        <v>42153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>42152</v>
       </c>
       <c r="B18">
         <v>23</v>
       </c>
-      <c r="C18" s="2">
-        <f t="shared" si="0"/>
-        <v>42175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>42175</v>
       </c>
       <c r="B19">
         <v>22</v>
       </c>
-      <c r="C19" s="2">
-        <f t="shared" si="0"/>
-        <v>42197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>42197</v>
       </c>
       <c r="B20">
         <v>23</v>
       </c>
-      <c r="C20" s="2">
-        <f t="shared" si="0"/>
-        <v>42220</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>42220</v>
       </c>
       <c r="B21">
         <v>21</v>
       </c>
-      <c r="C21" s="2">
-        <f t="shared" si="0"/>
-        <v>42241</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>42241</v>
       </c>
       <c r="B22">
         <v>23</v>
       </c>
-      <c r="C22" s="2">
-        <f t="shared" si="0"/>
-        <v>42264</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>42264</v>
       </c>
       <c r="B23">
         <v>15</v>
       </c>
-      <c r="C23" s="2">
-        <f t="shared" si="0"/>
-        <v>42279</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>42279</v>
       </c>
       <c r="B24">
         <v>24</v>
       </c>
-      <c r="C24" s="2">
-        <f t="shared" si="0"/>
-        <v>42303</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>42303</v>
       </c>
       <c r="B25">
         <v>23</v>
       </c>
-      <c r="C25" s="2">
-        <f t="shared" si="0"/>
-        <v>42326</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>42326</v>
       </c>
       <c r="B26">
         <v>22</v>
       </c>
-      <c r="C26" s="2">
-        <f t="shared" si="0"/>
-        <v>42348</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>42348</v>
       </c>
       <c r="B27">
         <v>23</v>
       </c>
-      <c r="C27" s="2">
-        <f t="shared" si="0"/>
-        <v>42371</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>42371</v>
       </c>
       <c r="B28">
         <v>23</v>
       </c>
-      <c r="C28" s="2">
-        <f t="shared" si="0"/>
-        <v>42394</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>42394</v>
       </c>
       <c r="B29">
         <v>23</v>
       </c>
-      <c r="C29" s="2">
-        <f t="shared" si="0"/>
-        <v>42417</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>42417</v>
       </c>
       <c r="B30">
         <v>22</v>
       </c>
-      <c r="C30" s="2">
-        <f t="shared" si="0"/>
-        <v>42439</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>42439</v>
       </c>
       <c r="B31">
         <v>16</v>
       </c>
-      <c r="C31" s="2">
-        <f t="shared" si="0"/>
-        <v>42455</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>42455</v>
       </c>
       <c r="B32">
         <v>23</v>
       </c>
-      <c r="C32" s="2">
-        <f t="shared" si="0"/>
-        <v>42478</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>42478</v>
       </c>
       <c r="B33">
         <v>23</v>
       </c>
-      <c r="C33" s="2">
-        <f t="shared" si="0"/>
-        <v>42501</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>42501</v>
       </c>
       <c r="B34">
         <v>23</v>
       </c>
-      <c r="C34" s="2">
-        <f t="shared" si="0"/>
-        <v>42524</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>42524</v>
       </c>
       <c r="B35">
         <v>23</v>
       </c>
-      <c r="C35" s="2">
-        <f t="shared" ref="C35:C59" si="1">A35+B35</f>
-        <v>42547</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>42547</v>
       </c>
       <c r="B36">
         <v>23</v>
       </c>
-      <c r="C36" s="2">
-        <f t="shared" si="1"/>
-        <v>42570</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>42570</v>
       </c>
       <c r="B37">
         <v>23</v>
       </c>
-      <c r="C37" s="2">
-        <f t="shared" si="1"/>
-        <v>42593</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>42593</v>
       </c>
       <c r="B38">
         <v>23</v>
       </c>
-      <c r="C38" s="2">
-        <f t="shared" si="1"/>
-        <v>42616</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>42616</v>
       </c>
       <c r="B39">
         <v>23</v>
       </c>
-      <c r="C39" s="2">
-        <f t="shared" si="1"/>
-        <v>42639</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>42639</v>
       </c>
       <c r="B40">
         <v>22</v>
       </c>
-      <c r="C40" s="2">
-        <f t="shared" si="1"/>
-        <v>42661</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>42661</v>
       </c>
       <c r="B41">
         <v>23</v>
       </c>
-      <c r="C41" s="2">
-        <f t="shared" si="1"/>
-        <v>42684</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>42684</v>
       </c>
       <c r="B42">
         <v>23</v>
       </c>
-      <c r="C42" s="2">
-        <f t="shared" si="1"/>
-        <v>42707</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42707</v>
       </c>
       <c r="B43">
         <v>18</v>
       </c>
-      <c r="C43" s="2">
-        <f t="shared" si="1"/>
-        <v>42725</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>42725</v>
       </c>
       <c r="B44">
         <v>23</v>
       </c>
-      <c r="C44" s="2">
-        <f t="shared" si="1"/>
-        <v>42748</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>42748</v>
       </c>
       <c r="B45">
         <v>23</v>
       </c>
-      <c r="C45" s="2">
-        <f t="shared" si="1"/>
-        <v>42771</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>42771</v>
       </c>
       <c r="B46">
         <v>23</v>
       </c>
-      <c r="C46" s="2">
-        <f t="shared" si="1"/>
-        <v>42794</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>42794</v>
       </c>
       <c r="B47">
         <v>23</v>
       </c>
-      <c r="C47" s="2">
-        <f t="shared" si="1"/>
-        <v>42817</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>42817</v>
       </c>
       <c r="B48">
         <v>21</v>
       </c>
-      <c r="C48" s="2">
-        <f t="shared" si="1"/>
-        <v>42838</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>42838</v>
       </c>
       <c r="B49">
         <v>23</v>
       </c>
-      <c r="C49" s="2">
-        <f t="shared" si="1"/>
-        <v>42861</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>42861</v>
       </c>
       <c r="B50">
         <v>25</v>
       </c>
-      <c r="C50" s="2">
-        <f t="shared" si="1"/>
-        <v>42886</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>42887</v>
       </c>
       <c r="B51">
         <v>22</v>
       </c>
-      <c r="C51" s="2">
-        <f t="shared" si="1"/>
-        <v>42909</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <f>C51</f>
-        <v>42909</v>
+        <v>0</v>
       </c>
       <c r="B52">
         <v>23</v>
       </c>
-      <c r="C52" s="2">
-        <f t="shared" si="1"/>
-        <v>42932</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>42932</v>
       </c>
       <c r="B53">
         <v>24</v>
       </c>
-      <c r="C53" s="2">
-        <f t="shared" si="1"/>
-        <v>42956</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>42956</v>
       </c>
       <c r="B54">
         <v>22</v>
       </c>
-      <c r="C54" s="2">
-        <f t="shared" si="1"/>
-        <v>42978</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>42978</v>
       </c>
       <c r="B55">
         <v>22</v>
       </c>
-      <c r="C55" s="2">
-        <f t="shared" si="1"/>
-        <v>43000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>43000</v>
       </c>
       <c r="B56">
         <v>23</v>
       </c>
-      <c r="C56" s="2">
-        <f t="shared" si="1"/>
-        <v>43023</v>
-      </c>
+      <c r="C56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>43023</v>
       </c>
       <c r="B57">
         <v>25</v>
       </c>
-      <c r="C57" s="2">
-        <f t="shared" si="1"/>
-        <v>43048</v>
-      </c>
+      <c r="C57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>43048</v>
       </c>
       <c r="B58">
         <v>23</v>
       </c>
-      <c r="C58" s="2">
-        <f t="shared" si="1"/>
-        <v>43071</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1</v>
-      </c>
+      <c r="C58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>43071</v>
       </c>
       <c r="B59">
         <v>18</v>
       </c>
-      <c r="C59" s="2">
-        <f t="shared" si="1"/>
-        <v>43089</v>
-      </c>
+      <c r="C59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>43089</v>
       </c>
       <c r="B60">
         <v>24</v>
       </c>
-      <c r="C60" s="2">
-        <v>43113</v>
-      </c>
+      <c r="C60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>43113</v>
       </c>
       <c r="B61">
-        <f t="shared" ref="B61:B71" si="2">A62-A61</f>
+        <f t="shared" ref="B61:B72" si="0">A62-A61</f>
         <v>26</v>
       </c>
       <c r="C61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>43139</v>
       </c>
       <c r="B62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>43162</v>
       </c>
       <c r="B63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>43184</v>
       </c>
       <c r="B64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>43207</v>
       </c>
       <c r="B65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>43222</v>
       </c>
       <c r="B66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>43244</v>
       </c>
       <c r="B67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>43272</v>
       </c>
       <c r="B68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>43295</v>
       </c>
       <c r="B69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>43321</v>
       </c>
       <c r="B70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>43343</v>
       </c>
       <c r="B71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>43364</v>
       </c>
-      <c r="C72" s="2">
-        <f>A72+22</f>
-        <v>43386</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>43395</v>
+      </c>
+      <c r="C73" s="2">
+        <f>A73+22</f>
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D75" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D76">
         <f>SUM(B3:B272)/COUNT(B3:B272)</f>
-        <v>22.536231884057973</v>
+        <v>22.657142857142858</v>
       </c>
     </row>
   </sheetData>

--- a/mens.xlsx
+++ b/mens.xlsx
@@ -139,10 +139,10 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C74" activeCellId="0" sqref="C74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C76" activeCellId="0" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -852,23 +852,33 @@
       <c r="A74" s="2" t="n">
         <v>43428</v>
       </c>
-      <c r="C74" s="2" t="n">
-        <f aca="false">A74+22</f>
-        <v>43450</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2"/>
+      <c r="B74" s="0" t="n">
+        <f aca="false">A75-A74</f>
+        <v>33</v>
+      </c>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="n">
+        <v>43461</v>
+      </c>
+      <c r="C75" s="2" t="n">
+        <f aca="false">A75+23</f>
+        <v>43484</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D76" s="0" t="s">
+      <c r="A76" s="2"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D77" s="0" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D77" s="0" t="n">
-        <f aca="false">SUM(B3:B273)/COUNT(B3:B273)</f>
-        <v>22.8028169014085</v>
+    <row r="78" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D78" s="0" t="n">
+        <f aca="false">SUM(B3:B274)/COUNT(B3:B274)</f>
+        <v>22.9444444444444</v>
       </c>
     </row>
   </sheetData>

--- a/mens.xlsx
+++ b/mens.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bk\bk_shared\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16382" windowHeight="8198" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -22,21 +26,20 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve">Beginn</t>
+    <t>Beginn</t>
   </si>
   <si>
-    <t xml:space="preserve">Durchschnitt</t>
+    <t>Durchschnitt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -44,22 +47,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -75,7 +63,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -83,809 +71,1052 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C76" activeCellId="0" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.85" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.63"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="3" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>41786</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>41808</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <f aca="false">A3-A2</f>
+      <c r="B3">
+        <f>A3-A2</f>
         <v>22</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>41830</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <f aca="false">A4-A3</f>
+      <c r="B4">
+        <f>A4-A3</f>
         <v>22</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>41854</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <f aca="false">A5-A4</f>
+      <c r="B5">
+        <f>A5-A4</f>
         <v>24</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>41877</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>23</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>41900</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>23</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>41923</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>23</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>41946</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>23</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>41968</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>23</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>41992</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>23</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>42014</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>23</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>42037</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>21</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>42058</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>22</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>42080</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>26</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>42107</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>23</v>
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>42130</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>23</v>
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>42152</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>23</v>
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>42175</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>22</v>
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>42197</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>23</v>
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>42220</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>21</v>
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>42241</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>23</v>
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>42264</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>15</v>
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>42279</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>24</v>
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>42303</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>23</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>42326</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>22</v>
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <v>42348</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>23</v>
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>42371</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>23</v>
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <v>42394</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>23</v>
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
         <v>42417</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>22</v>
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
         <v>42439</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>16</v>
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
         <v>42455</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>23</v>
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
         <v>42478</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>23</v>
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
         <v>42501</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34">
         <v>23</v>
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
         <v>42524</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35">
         <v>23</v>
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
         <v>42547</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36">
         <v>23</v>
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
         <v>42570</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37">
         <v>23</v>
       </c>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
         <v>42593</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38">
         <v>23</v>
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
         <v>42616</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39">
         <v>23</v>
       </c>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
         <v>42639</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40">
         <v>22</v>
       </c>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
         <v>42661</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41">
         <v>23</v>
       </c>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
         <v>42684</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42">
         <v>23</v>
       </c>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
         <v>42707</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43">
         <v>18</v>
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
         <v>42725</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44">
         <v>23</v>
       </c>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
         <v>42748</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45">
         <v>23</v>
       </c>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
         <v>42771</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46">
         <v>23</v>
       </c>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
         <v>42794</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47">
         <v>23</v>
       </c>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
         <v>42817</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48">
         <v>21</v>
       </c>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
         <v>42838</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49">
         <v>23</v>
       </c>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
         <v>42861</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50">
         <v>25</v>
       </c>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
         <v>42887</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51">
         <v>22</v>
       </c>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="n">
-        <f aca="false">C51</f>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <f>C51</f>
         <v>0</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52">
         <v>23</v>
       </c>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
         <v>42932</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53">
         <v>24</v>
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
         <v>42956</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54">
         <v>22</v>
       </c>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
         <v>42978</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55">
         <v>22</v>
       </c>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
         <v>43000</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56">
         <v>23</v>
       </c>
       <c r="C56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
         <v>43023</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57">
         <v>25</v>
       </c>
       <c r="C57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
         <v>43048</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58">
         <v>23</v>
       </c>
       <c r="C58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
         <v>43071</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59">
         <v>18</v>
       </c>
       <c r="C59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
         <v>43089</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60">
         <v>24</v>
       </c>
       <c r="C60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
         <v>43113</v>
       </c>
-      <c r="B61" s="0" t="n">
-        <f aca="false">A62-A61</f>
+      <c r="B61">
+        <f t="shared" ref="B61:B75" si="0">A62-A61</f>
         <v>26</v>
       </c>
       <c r="C61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
         <v>43139</v>
       </c>
-      <c r="B62" s="0" t="n">
-        <f aca="false">A63-A62</f>
+      <c r="B62">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
         <v>43162</v>
       </c>
-      <c r="B63" s="0" t="n">
-        <f aca="false">A64-A63</f>
+      <c r="B63">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
         <v>43184</v>
       </c>
-      <c r="B64" s="0" t="n">
-        <f aca="false">A65-A64</f>
+      <c r="B64">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
         <v>43207</v>
       </c>
-      <c r="B65" s="0" t="n">
-        <f aca="false">A66-A65</f>
+      <c r="B65">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
         <v>43222</v>
       </c>
-      <c r="B66" s="0" t="n">
-        <f aca="false">A67-A66</f>
+      <c r="B66">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
         <v>43244</v>
       </c>
-      <c r="B67" s="0" t="n">
-        <f aca="false">A68-A67</f>
+      <c r="B67">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
         <v>43272</v>
       </c>
-      <c r="B68" s="0" t="n">
-        <f aca="false">A69-A68</f>
+      <c r="B68">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
         <v>43295</v>
       </c>
-      <c r="B69" s="0" t="n">
-        <f aca="false">A70-A69</f>
+      <c r="B69">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
         <v>43321</v>
       </c>
-      <c r="B70" s="0" t="n">
-        <f aca="false">A71-A70</f>
+      <c r="B70">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
         <v>43343</v>
       </c>
-      <c r="B71" s="0" t="n">
-        <f aca="false">A72-A71</f>
+      <c r="B71">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
         <v>43364</v>
       </c>
-      <c r="B72" s="0" t="n">
-        <f aca="false">A73-A72</f>
+      <c r="B72">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
         <v>43395</v>
       </c>
-      <c r="B73" s="0" t="n">
-        <f aca="false">A74-A73</f>
+      <c r="B73">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
         <v>43428</v>
       </c>
-      <c r="B74" s="0" t="n">
-        <f aca="false">A75-A74</f>
+      <c r="B74">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C74" s="2"/>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
         <v>43461</v>
       </c>
-      <c r="C75" s="2" t="n">
-        <f aca="false">A75+23</f>
-        <v>43484</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D77" s="0" t="s">
+      <c r="B75">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>43483</v>
+      </c>
+      <c r="C76" s="2">
+        <f>A76+23</f>
+        <v>43506</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="2"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D78" s="0" t="n">
-        <f aca="false">SUM(B3:B274)/COUNT(B3:B274)</f>
-        <v>22.9444444444444</v>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D79">
+        <f>SUM(B3:B275)/COUNT(B3:B275)</f>
+        <v>22.931506849315067</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>

--- a/mens.xlsx
+++ b/mens.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16382" windowHeight="8198" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8205" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -361,17 +361,17 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.85" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="2" width="7.375" customWidth="1"/>
-    <col min="3" max="1025" width="8.625" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -925,7 +925,7 @@
         <v>43113</v>
       </c>
       <c r="B61">
-        <f t="shared" ref="B61:B75" si="0">A62-A61</f>
+        <f t="shared" ref="B61:B76" si="0">A62-A61</f>
         <v>26</v>
       </c>
       <c r="C61" s="2"/>
@@ -1094,23 +1094,33 @@
       <c r="A76" s="2">
         <v>43483</v>
       </c>
-      <c r="C76" s="2">
-        <f>A76+23</f>
-        <v>43506</v>
-      </c>
+      <c r="B76">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C76" s="2"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="2"/>
+      <c r="A77" s="2">
+        <v>43503</v>
+      </c>
+      <c r="C77" s="2">
+        <f>A77+23</f>
+        <v>43526</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D78" t="s">
+      <c r="A78" s="2"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D79">
-        <f>SUM(B3:B275)/COUNT(B3:B275)</f>
-        <v>22.931506849315067</v>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D80">
+        <f>SUM(B3:B276)/COUNT(B3:B276)</f>
+        <v>22.891891891891891</v>
       </c>
     </row>
   </sheetData>

--- a/mens.xlsx
+++ b/mens.xlsx
@@ -361,10 +361,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -925,7 +925,7 @@
         <v>43113</v>
       </c>
       <c r="B61">
-        <f t="shared" ref="B61:B76" si="0">A62-A61</f>
+        <f t="shared" ref="B61:B75" si="0">A62-A61</f>
         <v>26</v>
       </c>
       <c r="C61" s="2"/>
@@ -1095,7 +1095,7 @@
         <v>43483</v>
       </c>
       <c r="B76">
-        <f t="shared" si="0"/>
+        <f>A77-A76</f>
         <v>20</v>
       </c>
       <c r="C76" s="2"/>
@@ -1104,23 +1104,32 @@
       <c r="A77" s="2">
         <v>43503</v>
       </c>
-      <c r="C77" s="2">
-        <f>A77+23</f>
-        <v>43526</v>
+      <c r="B77">
+        <f>A78-A77</f>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="2"/>
+      <c r="A78" s="2">
+        <v>43528</v>
+      </c>
+      <c r="C78" s="2">
+        <f>A78+23</f>
+        <v>43551</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D79" t="s">
+      <c r="A79" s="2"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D80">
-        <f>SUM(B3:B276)/COUNT(B3:B276)</f>
-        <v>22.891891891891891</v>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D81">
+        <f>SUM(B3:B277)/COUNT(B3:B277)</f>
+        <v>22.92</v>
       </c>
     </row>
   </sheetData>

--- a/mens.xlsx
+++ b/mens.xlsx
@@ -361,7 +361,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C79" sqref="C79"/>
@@ -1113,23 +1113,33 @@
       <c r="A78" s="2">
         <v>43528</v>
       </c>
-      <c r="C78" s="2">
-        <f>A78+23</f>
-        <v>43551</v>
-      </c>
+      <c r="B78">
+        <f>A79-A78</f>
+        <v>22</v>
+      </c>
+      <c r="C78" s="2"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="2"/>
+      <c r="A79" s="2">
+        <v>43550</v>
+      </c>
+      <c r="C79" s="2">
+        <f>A79+23</f>
+        <v>43573</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D80" t="s">
+      <c r="A80" s="2"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D81">
-        <f>SUM(B3:B277)/COUNT(B3:B277)</f>
-        <v>22.92</v>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D82">
+        <f>SUM(B3:B278)/COUNT(B3:B278)</f>
+        <v>22.907894736842106</v>
       </c>
     </row>
   </sheetData>

--- a/mens.xlsx
+++ b/mens.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bk\bk_shared\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -22,21 +26,20 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve">Beginn</t>
+    <t>Beginn</t>
   </si>
   <si>
-    <t xml:space="preserve">Durchschnitt</t>
+    <t>Durchschnitt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -44,22 +47,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -75,7 +63,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -83,858 +71,1101 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C79" activeCellId="0" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>41786</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>41808</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <f aca="false">A3-A2</f>
+      <c r="B3">
+        <f>A3-A2</f>
         <v>22</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>41830</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <f aca="false">A4-A3</f>
+      <c r="B4">
+        <f>A4-A3</f>
         <v>22</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>41854</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <f aca="false">A5-A4</f>
+      <c r="B5">
+        <f>A5-A4</f>
         <v>24</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>41877</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>23</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>41900</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>23</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>41923</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>23</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>41946</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>23</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>41968</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>23</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>41992</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>23</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>42014</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>23</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>42037</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>21</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>42058</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>22</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>42080</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>26</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>42107</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>23</v>
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>42130</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>23</v>
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>42152</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>23</v>
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>42175</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>22</v>
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>42197</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>23</v>
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>42220</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>21</v>
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>42241</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>23</v>
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>42264</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>15</v>
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>42279</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>24</v>
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>42303</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>23</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>42326</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>22</v>
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <v>42348</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>23</v>
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>42371</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>23</v>
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <v>42394</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>23</v>
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
         <v>42417</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>22</v>
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
         <v>42439</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>16</v>
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
         <v>42455</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>23</v>
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
         <v>42478</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>23</v>
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
         <v>42501</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34">
         <v>23</v>
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
         <v>42524</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35">
         <v>23</v>
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
         <v>42547</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36">
         <v>23</v>
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
         <v>42570</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37">
         <v>23</v>
       </c>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
         <v>42593</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38">
         <v>23</v>
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
         <v>42616</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39">
         <v>23</v>
       </c>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
         <v>42639</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40">
         <v>22</v>
       </c>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
         <v>42661</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41">
         <v>23</v>
       </c>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
         <v>42684</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42">
         <v>23</v>
       </c>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
         <v>42707</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43">
         <v>18</v>
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
         <v>42725</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44">
         <v>23</v>
       </c>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
         <v>42748</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45">
         <v>23</v>
       </c>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
         <v>42771</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46">
         <v>23</v>
       </c>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
         <v>42794</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47">
         <v>23</v>
       </c>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
         <v>42817</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48">
         <v>21</v>
       </c>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
         <v>42838</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49">
         <v>23</v>
       </c>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
         <v>42861</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50">
         <v>25</v>
       </c>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
         <v>42887</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51">
         <v>22</v>
       </c>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="n">
-        <f aca="false">C51</f>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <f>C51</f>
         <v>0</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52">
         <v>23</v>
       </c>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
         <v>42932</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53">
         <v>24</v>
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
         <v>42956</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54">
         <v>22</v>
       </c>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
         <v>42978</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55">
         <v>22</v>
       </c>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
         <v>43000</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56">
         <v>23</v>
       </c>
       <c r="C56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
         <v>43023</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57">
         <v>25</v>
       </c>
       <c r="C57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
         <v>43048</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58">
         <v>23</v>
       </c>
       <c r="C58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
         <v>43071</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59">
         <v>18</v>
       </c>
       <c r="C59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
         <v>43089</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60">
         <v>24</v>
       </c>
       <c r="C60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
         <v>43113</v>
       </c>
-      <c r="B61" s="0" t="n">
-        <f aca="false">A62-A61</f>
+      <c r="B61">
+        <f t="shared" ref="B61:B79" si="0">A62-A61</f>
         <v>26</v>
       </c>
       <c r="C61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
         <v>43139</v>
       </c>
-      <c r="B62" s="0" t="n">
-        <f aca="false">A63-A62</f>
+      <c r="B62">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
         <v>43162</v>
       </c>
-      <c r="B63" s="0" t="n">
-        <f aca="false">A64-A63</f>
+      <c r="B63">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
         <v>43184</v>
       </c>
-      <c r="B64" s="0" t="n">
-        <f aca="false">A65-A64</f>
+      <c r="B64">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
         <v>43207</v>
       </c>
-      <c r="B65" s="0" t="n">
-        <f aca="false">A66-A65</f>
+      <c r="B65">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
         <v>43222</v>
       </c>
-      <c r="B66" s="0" t="n">
-        <f aca="false">A67-A66</f>
+      <c r="B66">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
         <v>43244</v>
       </c>
-      <c r="B67" s="0" t="n">
-        <f aca="false">A68-A67</f>
+      <c r="B67">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
         <v>43272</v>
       </c>
-      <c r="B68" s="0" t="n">
-        <f aca="false">A69-A68</f>
+      <c r="B68">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
         <v>43295</v>
       </c>
-      <c r="B69" s="0" t="n">
-        <f aca="false">A70-A69</f>
+      <c r="B69">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
         <v>43321</v>
       </c>
-      <c r="B70" s="0" t="n">
-        <f aca="false">A71-A70</f>
+      <c r="B70">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
         <v>43343</v>
       </c>
-      <c r="B71" s="0" t="n">
-        <f aca="false">A72-A71</f>
+      <c r="B71">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
         <v>43364</v>
       </c>
-      <c r="B72" s="0" t="n">
-        <f aca="false">A73-A72</f>
+      <c r="B72">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
         <v>43395</v>
       </c>
-      <c r="B73" s="0" t="n">
-        <f aca="false">A74-A73</f>
+      <c r="B73">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
         <v>43428</v>
       </c>
-      <c r="B74" s="0" t="n">
-        <f aca="false">A75-A74</f>
+      <c r="B74">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C74" s="2"/>
     </row>
-    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
         <v>43461</v>
       </c>
-      <c r="B75" s="0" t="n">
-        <f aca="false">A76-A75</f>
+      <c r="B75">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
         <v>43483</v>
       </c>
-      <c r="B76" s="0" t="n">
-        <f aca="false">A77-A76</f>
+      <c r="B76">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
         <v>43503</v>
       </c>
-      <c r="B77" s="0" t="n">
-        <f aca="false">A78-A77</f>
+      <c r="B77">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
         <v>43528</v>
       </c>
-      <c r="B78" s="0" t="n">
-        <f aca="false">A79-A78</f>
+      <c r="B78">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C78" s="2"/>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
         <v>43550</v>
       </c>
-      <c r="B79" s="0" t="n">
-        <f aca="false">A80-A79</f>
+      <c r="B79">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C79" s="2"/>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
         <v>43575</v>
       </c>
-      <c r="C80" s="2" t="n">
-        <f aca="false">A80+23</f>
+      <c r="B80">
+        <f>A81-A80</f>
+        <v>23</v>
+      </c>
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
         <v>43598</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D82" s="0" t="s">
+      <c r="C81" s="2">
+        <f>A81+23</f>
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D83" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D83" s="0" t="n">
-        <f aca="false">SUM(B3:B279)/COUNT(B3:B279)</f>
-        <v>22.9350649350649</v>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D84">
+        <f>SUM(B3:B280)/COUNT(B3:B280)</f>
+        <v>22.935897435897434</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>

--- a/mens.xlsx
+++ b/mens.xlsx
@@ -361,10 +361,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1143,23 +1143,33 @@
       <c r="A81" s="2">
         <v>43598</v>
       </c>
-      <c r="C81" s="2">
-        <f>A81+23</f>
-        <v>43621</v>
-      </c>
+      <c r="B81">
+        <f>A82-A81</f>
+        <v>24</v>
+      </c>
+      <c r="C81" s="2"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="2"/>
+      <c r="A82" s="2">
+        <v>43622</v>
+      </c>
+      <c r="C82" s="2">
+        <f>A82+23</f>
+        <v>43645</v>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D83" t="s">
+      <c r="A83" s="2"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D84" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D84">
-        <f>SUM(B3:B280)/COUNT(B3:B280)</f>
-        <v>22.935897435897434</v>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D85">
+        <f>SUM(B3:B281)/COUNT(B3:B281)</f>
+        <v>22.949367088607595</v>
       </c>
     </row>
   </sheetData>

--- a/mens.xlsx
+++ b/mens.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bk\bk_shared\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -22,21 +26,20 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve">Beginn</t>
+    <t>Beginn</t>
   </si>
   <si>
-    <t xml:space="preserve">Durchschnitt</t>
+    <t>Durchschnitt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -44,22 +47,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -75,7 +63,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -83,888 +71,1131 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C82" activeCellId="0" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>41786</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>41808</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <f aca="false">A3-A2</f>
+      <c r="B3">
+        <f>A3-A2</f>
         <v>22</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>41830</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <f aca="false">A4-A3</f>
+      <c r="B4">
+        <f>A4-A3</f>
         <v>22</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>41854</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <f aca="false">A5-A4</f>
+      <c r="B5">
+        <f>A5-A4</f>
         <v>24</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>41877</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>23</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>41900</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>23</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>41923</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>23</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>41946</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>23</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>41968</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>23</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>41992</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>23</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>42014</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>23</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>42037</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>21</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>42058</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>22</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>42080</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>26</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>42107</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>23</v>
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>42130</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>23</v>
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>42152</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>23</v>
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>42175</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>22</v>
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>42197</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>23</v>
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>42220</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>21</v>
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>42241</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>23</v>
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>42264</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>15</v>
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>42279</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>24</v>
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>42303</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>23</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>42326</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>22</v>
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <v>42348</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>23</v>
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>42371</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>23</v>
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <v>42394</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>23</v>
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
         <v>42417</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>22</v>
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
         <v>42439</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>16</v>
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
         <v>42455</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>23</v>
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
         <v>42478</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>23</v>
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
         <v>42501</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34">
         <v>23</v>
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
         <v>42524</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35">
         <v>23</v>
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
         <v>42547</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36">
         <v>23</v>
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
         <v>42570</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37">
         <v>23</v>
       </c>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
         <v>42593</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38">
         <v>23</v>
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
         <v>42616</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39">
         <v>23</v>
       </c>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
         <v>42639</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40">
         <v>22</v>
       </c>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
         <v>42661</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41">
         <v>23</v>
       </c>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
         <v>42684</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42">
         <v>23</v>
       </c>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
         <v>42707</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43">
         <v>18</v>
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
         <v>42725</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44">
         <v>23</v>
       </c>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
         <v>42748</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45">
         <v>23</v>
       </c>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
         <v>42771</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46">
         <v>23</v>
       </c>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
         <v>42794</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47">
         <v>23</v>
       </c>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
         <v>42817</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48">
         <v>21</v>
       </c>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
         <v>42838</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49">
         <v>23</v>
       </c>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
         <v>42861</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50">
         <v>25</v>
       </c>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
         <v>42887</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51">
         <v>22</v>
       </c>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="n">
-        <f aca="false">C51</f>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <f>C51</f>
         <v>0</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52">
         <v>23</v>
       </c>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
         <v>42932</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53">
         <v>24</v>
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
         <v>42956</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54">
         <v>22</v>
       </c>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
         <v>42978</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55">
         <v>22</v>
       </c>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
         <v>43000</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56">
         <v>23</v>
       </c>
       <c r="C56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
         <v>43023</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57">
         <v>25</v>
       </c>
       <c r="C57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
         <v>43048</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58">
         <v>23</v>
       </c>
       <c r="C58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
         <v>43071</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59">
         <v>18</v>
       </c>
       <c r="C59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
         <v>43089</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60">
         <v>24</v>
       </c>
       <c r="C60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
         <v>43113</v>
       </c>
-      <c r="B61" s="0" t="n">
-        <f aca="false">A62-A61</f>
+      <c r="B61">
+        <f t="shared" ref="B61:B82" si="0">A62-A61</f>
         <v>26</v>
       </c>
       <c r="C61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
         <v>43139</v>
       </c>
-      <c r="B62" s="0" t="n">
-        <f aca="false">A63-A62</f>
+      <c r="B62">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
         <v>43162</v>
       </c>
-      <c r="B63" s="0" t="n">
-        <f aca="false">A64-A63</f>
+      <c r="B63">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
         <v>43184</v>
       </c>
-      <c r="B64" s="0" t="n">
-        <f aca="false">A65-A64</f>
+      <c r="B64">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
         <v>43207</v>
       </c>
-      <c r="B65" s="0" t="n">
-        <f aca="false">A66-A65</f>
+      <c r="B65">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
         <v>43222</v>
       </c>
-      <c r="B66" s="0" t="n">
-        <f aca="false">A67-A66</f>
+      <c r="B66">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
         <v>43244</v>
       </c>
-      <c r="B67" s="0" t="n">
-        <f aca="false">A68-A67</f>
+      <c r="B67">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
         <v>43272</v>
       </c>
-      <c r="B68" s="0" t="n">
-        <f aca="false">A69-A68</f>
+      <c r="B68">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
         <v>43295</v>
       </c>
-      <c r="B69" s="0" t="n">
-        <f aca="false">A70-A69</f>
+      <c r="B69">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
         <v>43321</v>
       </c>
-      <c r="B70" s="0" t="n">
-        <f aca="false">A71-A70</f>
+      <c r="B70">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
         <v>43343</v>
       </c>
-      <c r="B71" s="0" t="n">
-        <f aca="false">A72-A71</f>
+      <c r="B71">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
         <v>43364</v>
       </c>
-      <c r="B72" s="0" t="n">
-        <f aca="false">A73-A72</f>
+      <c r="B72">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
         <v>43395</v>
       </c>
-      <c r="B73" s="0" t="n">
-        <f aca="false">A74-A73</f>
+      <c r="B73">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
         <v>43428</v>
       </c>
-      <c r="B74" s="0" t="n">
-        <f aca="false">A75-A74</f>
+      <c r="B74">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C74" s="2"/>
     </row>
-    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
         <v>43461</v>
       </c>
-      <c r="B75" s="0" t="n">
-        <f aca="false">A76-A75</f>
+      <c r="B75">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
         <v>43483</v>
       </c>
-      <c r="B76" s="0" t="n">
-        <f aca="false">A77-A76</f>
+      <c r="B76">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
         <v>43503</v>
       </c>
-      <c r="B77" s="0" t="n">
-        <f aca="false">A78-A77</f>
+      <c r="B77">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
         <v>43528</v>
       </c>
-      <c r="B78" s="0" t="n">
-        <f aca="false">A79-A78</f>
+      <c r="B78">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C78" s="2"/>
     </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
         <v>43550</v>
       </c>
-      <c r="B79" s="0" t="n">
-        <f aca="false">A80-A79</f>
+      <c r="B79">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C79" s="2"/>
     </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
         <v>43575</v>
       </c>
-      <c r="B80" s="0" t="n">
-        <f aca="false">A81-A80</f>
+      <c r="B80">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C80" s="2"/>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
         <v>43598</v>
       </c>
-      <c r="B81" s="0" t="n">
-        <f aca="false">A82-A81</f>
+      <c r="B81">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C81" s="2"/>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
         <v>43622</v>
       </c>
-      <c r="B82" s="0" t="n">
-        <f aca="false">A83-A82</f>
+      <c r="B82">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C82" s="2"/>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
         <v>43644</v>
       </c>
-      <c r="C83" s="2" t="n">
-        <f aca="false">A83+23</f>
-        <v>43667</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D85" s="0" t="s">
+      <c r="B83">
+        <f>A84-A83</f>
+        <v>25</v>
+      </c>
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>43669</v>
+      </c>
+      <c r="C84" s="2">
+        <f>A84+23</f>
+        <v>43692</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="2"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D86" s="0" t="n">
-        <f aca="false">SUM(B3:B282)/COUNT(B3:B282)</f>
-        <v>22.9375</v>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D87">
+        <f>SUM(B3:B283)/COUNT(B3:B283)</f>
+        <v>22.962962962962962</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>

--- a/mens.xlsx
+++ b/mens.xlsx
@@ -361,10 +361,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1173,23 +1173,33 @@
       <c r="A84" s="2">
         <v>43669</v>
       </c>
-      <c r="C84" s="2">
-        <f>A84+23</f>
+      <c r="B84">
+        <f>A85-A84</f>
+        <v>23</v>
+      </c>
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
         <v>43692</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="2"/>
+      <c r="C85" s="2">
+        <f>A85+23</f>
+        <v>43715</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D86" t="s">
+      <c r="A86" s="2"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D87">
-        <f>SUM(B3:B283)/COUNT(B3:B283)</f>
-        <v>22.962962962962962</v>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D88">
+        <f>SUM(B3:B284)/COUNT(B3:B284)</f>
+        <v>22.963414634146343</v>
       </c>
     </row>
   </sheetData>

--- a/mens.xlsx
+++ b/mens.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bk\bk_shared\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -22,21 +26,20 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve">Beginn</t>
+    <t>Beginn</t>
   </si>
   <si>
-    <t xml:space="preserve">Durchschnitt</t>
+    <t>Durchschnitt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -44,22 +47,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -75,7 +63,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -83,918 +71,1161 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C86" activeCellId="0" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>41786</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>41808</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <f aca="false">A3-A2</f>
+      <c r="B3">
+        <f>A3-A2</f>
         <v>22</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>41830</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <f aca="false">A4-A3</f>
+      <c r="B4">
+        <f>A4-A3</f>
         <v>22</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>41854</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <f aca="false">A5-A4</f>
+      <c r="B5">
+        <f>A5-A4</f>
         <v>24</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>41877</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>23</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>41900</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>23</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>41923</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>23</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>41946</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>23</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>41968</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>23</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>41992</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>23</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>42014</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>23</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>42037</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>21</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>42058</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>22</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>42080</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>26</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>42107</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>23</v>
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>42130</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>23</v>
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>42152</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>23</v>
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>42175</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>22</v>
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>42197</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>23</v>
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>42220</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>21</v>
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>42241</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>23</v>
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>42264</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>15</v>
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>42279</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>24</v>
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>42303</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>23</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>42326</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>22</v>
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <v>42348</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>23</v>
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>42371</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>23</v>
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <v>42394</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>23</v>
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
         <v>42417</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>22</v>
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
         <v>42439</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>16</v>
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
         <v>42455</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>23</v>
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
         <v>42478</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>23</v>
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
         <v>42501</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34">
         <v>23</v>
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
         <v>42524</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35">
         <v>23</v>
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
         <v>42547</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36">
         <v>23</v>
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
         <v>42570</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37">
         <v>23</v>
       </c>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
         <v>42593</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38">
         <v>23</v>
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
         <v>42616</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39">
         <v>23</v>
       </c>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
         <v>42639</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40">
         <v>22</v>
       </c>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
         <v>42661</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41">
         <v>23</v>
       </c>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
         <v>42684</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42">
         <v>23</v>
       </c>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
         <v>42707</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43">
         <v>18</v>
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
         <v>42725</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44">
         <v>23</v>
       </c>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
         <v>42748</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45">
         <v>23</v>
       </c>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
         <v>42771</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46">
         <v>23</v>
       </c>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
         <v>42794</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47">
         <v>23</v>
       </c>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
         <v>42817</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48">
         <v>21</v>
       </c>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
         <v>42838</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49">
         <v>23</v>
       </c>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
         <v>42861</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50">
         <v>25</v>
       </c>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
         <v>42887</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51">
         <v>22</v>
       </c>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="n">
-        <f aca="false">C51</f>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <f>C51</f>
         <v>0</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52">
         <v>23</v>
       </c>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
         <v>42932</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53">
         <v>24</v>
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
         <v>42956</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54">
         <v>22</v>
       </c>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
         <v>42978</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55">
         <v>22</v>
       </c>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
         <v>43000</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56">
         <v>23</v>
       </c>
       <c r="C56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
         <v>43023</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57">
         <v>25</v>
       </c>
       <c r="C57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
         <v>43048</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58">
         <v>23</v>
       </c>
       <c r="C58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
         <v>43071</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59">
         <v>18</v>
       </c>
       <c r="C59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
         <v>43089</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60">
         <v>24</v>
       </c>
       <c r="C60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
         <v>43113</v>
       </c>
-      <c r="B61" s="0" t="n">
-        <f aca="false">A62-A61</f>
+      <c r="B61">
+        <f t="shared" ref="B61:B86" si="0">A62-A61</f>
         <v>26</v>
       </c>
       <c r="C61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
         <v>43139</v>
       </c>
-      <c r="B62" s="0" t="n">
-        <f aca="false">A63-A62</f>
+      <c r="B62">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
         <v>43162</v>
       </c>
-      <c r="B63" s="0" t="n">
-        <f aca="false">A64-A63</f>
+      <c r="B63">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
         <v>43184</v>
       </c>
-      <c r="B64" s="0" t="n">
-        <f aca="false">A65-A64</f>
+      <c r="B64">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
         <v>43207</v>
       </c>
-      <c r="B65" s="0" t="n">
-        <f aca="false">A66-A65</f>
+      <c r="B65">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
         <v>43222</v>
       </c>
-      <c r="B66" s="0" t="n">
-        <f aca="false">A67-A66</f>
+      <c r="B66">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
         <v>43244</v>
       </c>
-      <c r="B67" s="0" t="n">
-        <f aca="false">A68-A67</f>
+      <c r="B67">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
         <v>43272</v>
       </c>
-      <c r="B68" s="0" t="n">
-        <f aca="false">A69-A68</f>
+      <c r="B68">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
         <v>43295</v>
       </c>
-      <c r="B69" s="0" t="n">
-        <f aca="false">A70-A69</f>
+      <c r="B69">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
         <v>43321</v>
       </c>
-      <c r="B70" s="0" t="n">
-        <f aca="false">A71-A70</f>
+      <c r="B70">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
         <v>43343</v>
       </c>
-      <c r="B71" s="0" t="n">
-        <f aca="false">A72-A71</f>
+      <c r="B71">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
         <v>43364</v>
       </c>
-      <c r="B72" s="0" t="n">
-        <f aca="false">A73-A72</f>
+      <c r="B72">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
         <v>43395</v>
       </c>
-      <c r="B73" s="0" t="n">
-        <f aca="false">A74-A73</f>
+      <c r="B73">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
         <v>43428</v>
       </c>
-      <c r="B74" s="0" t="n">
-        <f aca="false">A75-A74</f>
+      <c r="B74">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C74" s="2"/>
     </row>
-    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
         <v>43461</v>
       </c>
-      <c r="B75" s="0" t="n">
-        <f aca="false">A76-A75</f>
+      <c r="B75">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
         <v>43483</v>
       </c>
-      <c r="B76" s="0" t="n">
-        <f aca="false">A77-A76</f>
+      <c r="B76">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
         <v>43503</v>
       </c>
-      <c r="B77" s="0" t="n">
-        <f aca="false">A78-A77</f>
+      <c r="B77">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
         <v>43528</v>
       </c>
-      <c r="B78" s="0" t="n">
-        <f aca="false">A79-A78</f>
+      <c r="B78">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C78" s="2"/>
     </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
         <v>43550</v>
       </c>
-      <c r="B79" s="0" t="n">
-        <f aca="false">A80-A79</f>
+      <c r="B79">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C79" s="2"/>
     </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
         <v>43575</v>
       </c>
-      <c r="B80" s="0" t="n">
-        <f aca="false">A81-A80</f>
+      <c r="B80">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C80" s="2"/>
     </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
         <v>43598</v>
       </c>
-      <c r="B81" s="0" t="n">
-        <f aca="false">A82-A81</f>
+      <c r="B81">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C81" s="2"/>
     </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
         <v>43622</v>
       </c>
-      <c r="B82" s="0" t="n">
-        <f aca="false">A83-A82</f>
+      <c r="B82">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C82" s="2"/>
     </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
         <v>43644</v>
       </c>
-      <c r="B83" s="0" t="n">
-        <f aca="false">A84-A83</f>
+      <c r="B83">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C83" s="2"/>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
         <v>43669</v>
       </c>
-      <c r="B84" s="0" t="n">
-        <f aca="false">A85-A84</f>
+      <c r="B84">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C84" s="2"/>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
         <v>43692</v>
       </c>
-      <c r="B85" s="0" t="n">
-        <f aca="false">A86-A85</f>
+      <c r="B85">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C85" s="2"/>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
         <v>43723</v>
       </c>
-      <c r="C86" s="2" t="n">
-        <f aca="false">A86+23</f>
-        <v>43746</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2"/>
-    </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D88" s="0" t="s">
+      <c r="B86">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>43738</v>
+      </c>
+      <c r="C87" s="2">
+        <f>A87+23</f>
+        <v>43761</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="2"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D89" s="0" t="n">
-        <f aca="false">SUM(B3:B285)/COUNT(B3:B285)</f>
-        <v>23.0602409638554</v>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D90">
+        <f>SUM(B3:B286)/COUNT(B3:B286)</f>
+        <v>22.964285714285715</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>

--- a/mens.xlsx
+++ b/mens.xlsx
@@ -361,10 +361,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1194,7 +1194,7 @@
         <v>43723</v>
       </c>
       <c r="B86">
-        <f t="shared" si="0"/>
+        <f>A87-A86</f>
         <v>15</v>
       </c>
       <c r="C86" s="2"/>
@@ -1203,23 +1203,33 @@
       <c r="A87" s="2">
         <v>43738</v>
       </c>
-      <c r="C87" s="2">
-        <f>A87+23</f>
-        <v>43761</v>
-      </c>
+      <c r="B87">
+        <f>A88-A87</f>
+        <v>57</v>
+      </c>
+      <c r="C87" s="2"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="2"/>
+      <c r="A88" s="2">
+        <v>43795</v>
+      </c>
+      <c r="C88" s="2">
+        <f>A88+23</f>
+        <v>43818</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D89" t="s">
+      <c r="A89" s="2"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D90">
-        <f>SUM(B3:B286)/COUNT(B3:B286)</f>
-        <v>22.964285714285715</v>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D91">
+        <f>SUM(B3:B287)/COUNT(B3:B287)</f>
+        <v>23.36470588235294</v>
       </c>
     </row>
   </sheetData>

--- a/mens.xlsx
+++ b/mens.xlsx
@@ -142,13 +142,13 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A90" activeCellId="0" sqref="90:90"/>
+      <selection pane="topLeft" activeCell="C89" activeCellId="0" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
   </cols>
   <sheetData>
@@ -992,17 +992,21 @@
         <v>43795</v>
       </c>
       <c r="B88" s="0" t="n">
-        <f aca="false">A89-A88</f>
-        <v>43</v>
+        <f aca="false">A88-A87</f>
+        <v>57</v>
       </c>
       <c r="C88" s="2" t="n">
         <f aca="false">A88+23</f>
         <v>43818</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="n">
-        <v>43838</v>
+        <v>43864</v>
+      </c>
+      <c r="B89" s="0" t="n">
+        <f aca="false">A89-A88</f>
+        <v>69</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1016,7 +1020,7 @@
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D92" s="0" t="n">
         <f aca="false">SUM(B3:B288)/COUNT(B3:B288)</f>
-        <v>23.593023255814</v>
+        <v>24.2758620689655</v>
       </c>
     </row>
   </sheetData>

--- a/mens.xlsx
+++ b/mens.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bk\bk_shared\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -22,21 +26,20 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve">Beginn</t>
+    <t>Beginn</t>
   </si>
   <si>
-    <t xml:space="preserve">Durchschnitt</t>
+    <t>Durchschnitt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -44,22 +47,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -75,7 +63,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -83,951 +71,1193 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C89" activeCellId="0" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>41786</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>41808</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <f aca="false">A3-A2</f>
+      <c r="B3">
+        <f>A3-A2</f>
         <v>22</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>41830</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <f aca="false">A4-A3</f>
+      <c r="B4">
+        <f>A4-A3</f>
         <v>22</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>41854</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <f aca="false">A5-A4</f>
+      <c r="B5">
+        <f>A5-A4</f>
         <v>24</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>41877</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>23</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>41900</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>23</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>41923</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>23</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>41946</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>23</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>41968</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>23</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>41992</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>23</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>42014</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>23</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>42037</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>21</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>42058</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>22</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>42080</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>26</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>42107</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>23</v>
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>42130</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>23</v>
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>42152</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>23</v>
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>42175</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>22</v>
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>42197</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>23</v>
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>42220</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>21</v>
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>42241</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>23</v>
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>42264</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>15</v>
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>42279</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>24</v>
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>42303</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>23</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>42326</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>22</v>
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <v>42348</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>23</v>
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>42371</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>23</v>
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <v>42394</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>23</v>
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
         <v>42417</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>22</v>
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
         <v>42439</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>16</v>
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
         <v>42455</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>23</v>
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
         <v>42478</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>23</v>
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
         <v>42501</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34">
         <v>23</v>
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
         <v>42524</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35">
         <v>23</v>
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
         <v>42547</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36">
         <v>23</v>
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
         <v>42570</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37">
         <v>23</v>
       </c>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
         <v>42593</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38">
         <v>23</v>
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
         <v>42616</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39">
         <v>23</v>
       </c>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
         <v>42639</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40">
         <v>22</v>
       </c>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
         <v>42661</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41">
         <v>23</v>
       </c>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
         <v>42684</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42">
         <v>23</v>
       </c>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
         <v>42707</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43">
         <v>18</v>
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
         <v>42725</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44">
         <v>23</v>
       </c>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
         <v>42748</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45">
         <v>23</v>
       </c>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
         <v>42771</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46">
         <v>23</v>
       </c>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
         <v>42794</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47">
         <v>23</v>
       </c>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
         <v>42817</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48">
         <v>21</v>
       </c>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
         <v>42838</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49">
         <v>23</v>
       </c>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
         <v>42861</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50">
         <v>25</v>
       </c>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
         <v>42887</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51">
         <v>22</v>
       </c>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="n">
-        <f aca="false">C51</f>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <f>C51</f>
         <v>0</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52">
         <v>23</v>
       </c>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
         <v>42932</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53">
         <v>24</v>
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
         <v>42956</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54">
         <v>22</v>
       </c>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
         <v>42978</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55">
         <v>22</v>
       </c>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
         <v>43000</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56">
         <v>23</v>
       </c>
       <c r="C56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
         <v>43023</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57">
         <v>25</v>
       </c>
       <c r="C57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
         <v>43048</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58">
         <v>23</v>
       </c>
       <c r="C58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
         <v>43071</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59">
         <v>18</v>
       </c>
       <c r="C59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
         <v>43089</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60">
         <v>24</v>
       </c>
       <c r="C60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
         <v>43113</v>
       </c>
-      <c r="B61" s="0" t="n">
-        <f aca="false">A62-A61</f>
+      <c r="B61">
+        <f t="shared" ref="B61:B87" si="0">A62-A61</f>
         <v>26</v>
       </c>
       <c r="C61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
         <v>43139</v>
       </c>
-      <c r="B62" s="0" t="n">
-        <f aca="false">A63-A62</f>
+      <c r="B62">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
         <v>43162</v>
       </c>
-      <c r="B63" s="0" t="n">
-        <f aca="false">A64-A63</f>
+      <c r="B63">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
         <v>43184</v>
       </c>
-      <c r="B64" s="0" t="n">
-        <f aca="false">A65-A64</f>
+      <c r="B64">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
         <v>43207</v>
       </c>
-      <c r="B65" s="0" t="n">
-        <f aca="false">A66-A65</f>
+      <c r="B65">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
         <v>43222</v>
       </c>
-      <c r="B66" s="0" t="n">
-        <f aca="false">A67-A66</f>
+      <c r="B66">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
         <v>43244</v>
       </c>
-      <c r="B67" s="0" t="n">
-        <f aca="false">A68-A67</f>
+      <c r="B67">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
         <v>43272</v>
       </c>
-      <c r="B68" s="0" t="n">
-        <f aca="false">A69-A68</f>
+      <c r="B68">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
         <v>43295</v>
       </c>
-      <c r="B69" s="0" t="n">
-        <f aca="false">A70-A69</f>
+      <c r="B69">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
         <v>43321</v>
       </c>
-      <c r="B70" s="0" t="n">
-        <f aca="false">A71-A70</f>
+      <c r="B70">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
         <v>43343</v>
       </c>
-      <c r="B71" s="0" t="n">
-        <f aca="false">A72-A71</f>
+      <c r="B71">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
         <v>43364</v>
       </c>
-      <c r="B72" s="0" t="n">
-        <f aca="false">A73-A72</f>
+      <c r="B72">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
         <v>43395</v>
       </c>
-      <c r="B73" s="0" t="n">
-        <f aca="false">A74-A73</f>
+      <c r="B73">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
         <v>43428</v>
       </c>
-      <c r="B74" s="0" t="n">
-        <f aca="false">A75-A74</f>
+      <c r="B74">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C74" s="2"/>
     </row>
-    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
         <v>43461</v>
       </c>
-      <c r="B75" s="0" t="n">
-        <f aca="false">A76-A75</f>
+      <c r="B75">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
         <v>43483</v>
       </c>
-      <c r="B76" s="0" t="n">
-        <f aca="false">A77-A76</f>
+      <c r="B76">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
         <v>43503</v>
       </c>
-      <c r="B77" s="0" t="n">
-        <f aca="false">A78-A77</f>
+      <c r="B77">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
         <v>43528</v>
       </c>
-      <c r="B78" s="0" t="n">
-        <f aca="false">A79-A78</f>
+      <c r="B78">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C78" s="2"/>
     </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
         <v>43550</v>
       </c>
-      <c r="B79" s="0" t="n">
-        <f aca="false">A80-A79</f>
+      <c r="B79">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C79" s="2"/>
     </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
         <v>43575</v>
       </c>
-      <c r="B80" s="0" t="n">
-        <f aca="false">A81-A80</f>
+      <c r="B80">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C80" s="2"/>
     </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
         <v>43598</v>
       </c>
-      <c r="B81" s="0" t="n">
-        <f aca="false">A82-A81</f>
+      <c r="B81">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C81" s="2"/>
     </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
         <v>43622</v>
       </c>
-      <c r="B82" s="0" t="n">
-        <f aca="false">A83-A82</f>
+      <c r="B82">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C82" s="2"/>
     </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
         <v>43644</v>
       </c>
-      <c r="B83" s="0" t="n">
-        <f aca="false">A84-A83</f>
+      <c r="B83">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C83" s="2"/>
     </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
         <v>43669</v>
       </c>
-      <c r="B84" s="0" t="n">
-        <f aca="false">A85-A84</f>
+      <c r="B84">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C84" s="2"/>
     </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
         <v>43692</v>
       </c>
-      <c r="B85" s="0" t="n">
-        <f aca="false">A86-A85</f>
+      <c r="B85">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C85" s="2"/>
     </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
         <v>43723</v>
       </c>
-      <c r="B86" s="0" t="n">
-        <f aca="false">A87-A86</f>
+      <c r="B86">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C86" s="2"/>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
         <v>43738</v>
       </c>
-      <c r="B87" s="0" t="n">
-        <f aca="false">A88-A87</f>
+      <c r="B87">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="C87" s="2"/>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
         <v>43795</v>
       </c>
-      <c r="B88" s="0" t="n">
-        <f aca="false">A88-A87</f>
+      <c r="B88">
+        <f>A88-A87</f>
         <v>57</v>
       </c>
-      <c r="C88" s="2" t="n">
-        <f aca="false">A88+23</f>
+      <c r="C88" s="2">
+        <f>A88+23</f>
         <v>43818</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
         <v>43864</v>
       </c>
-      <c r="B89" s="0" t="n">
-        <f aca="false">A89-A88</f>
+      <c r="B89">
+        <f>A89-A88</f>
         <v>69</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2"/>
-    </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D91" s="0" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>43878</v>
+      </c>
+      <c r="B90">
+        <f>A90-A89</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="2"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D92" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D92" s="0" t="n">
-        <f aca="false">SUM(B3:B288)/COUNT(B3:B288)</f>
-        <v>24.2758620689655</v>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D93">
+        <f>SUM(B3:B289)/COUNT(B3:B289)</f>
+        <v>24.15909090909091</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>

--- a/mens.xlsx
+++ b/mens.xlsx
@@ -361,10 +361,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1217,10 +1217,7 @@
         <f>A88-A87</f>
         <v>57</v>
       </c>
-      <c r="C88" s="2">
-        <f>A88+23</f>
-        <v>43818</v>
-      </c>
+      <c r="C88" s="2"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
@@ -1241,17 +1238,26 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="2"/>
+      <c r="A91" s="2">
+        <v>43898</v>
+      </c>
+      <c r="B91">
+        <f>A91-A90</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D92" t="s">
+      <c r="A92" s="2"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D93">
-        <f>SUM(B3:B289)/COUNT(B3:B289)</f>
-        <v>24.15909090909091</v>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D94">
+        <f>SUM(B3:B290)/COUNT(B3:B290)</f>
+        <v>24.112359550561798</v>
       </c>
     </row>
   </sheetData>

--- a/mens.xlsx
+++ b/mens.xlsx
@@ -361,10 +361,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1247,17 +1247,33 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="2"/>
+      <c r="A92" s="2">
+        <f>A91+27</f>
+        <v>43925</v>
+      </c>
+      <c r="B92">
+        <f>A92-A91</f>
+        <v>27</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D93" t="s">
+      <c r="A93" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B93">
+        <f>A93-A92</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D94" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D94">
-        <f>SUM(B3:B290)/COUNT(B3:B290)</f>
-        <v>24.112359550561798</v>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D95">
+        <f>SUM(B3:B291)/COUNT(B3:B291)</f>
+        <v>24.175824175824175</v>
       </c>
     </row>
   </sheetData>

--- a/mens.xlsx
+++ b/mens.xlsx
@@ -361,10 +361,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+      <selection activeCell="B93" sqref="B93:B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1214,7 +1214,7 @@
         <v>43795</v>
       </c>
       <c r="B88">
-        <f>A88-A87</f>
+        <f t="shared" ref="B88:B92" si="1">A88-A87</f>
         <v>57</v>
       </c>
       <c r="C88" s="2"/>
@@ -1224,7 +1224,7 @@
         <v>43864</v>
       </c>
       <c r="B89">
-        <f>A89-A88</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
         <v>43878</v>
       </c>
       <c r="B90">
-        <f>A90-A89</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
         <v>43898</v>
       </c>
       <c r="B91">
-        <f>A91-A90</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
         <v>43925</v>
       </c>
       <c r="B92">
-        <f>A92-A91</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
@@ -1266,14 +1266,23 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D94" t="s">
+      <c r="A94" s="2">
+        <v>44008</v>
+      </c>
+      <c r="B94">
+        <f>A94-A93</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D95" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D95">
-        <f>SUM(B3:B291)/COUNT(B3:B291)</f>
-        <v>24.175824175824175</v>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D96">
+        <f>SUM(B3:B292)/COUNT(B3:B292)</f>
+        <v>24.521739130434781</v>
       </c>
     </row>
   </sheetData>

--- a/mens.xlsx
+++ b/mens.xlsx
@@ -361,10 +361,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93:B94"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94:B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1275,14 +1275,23 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D95" t="s">
+      <c r="A95" s="2">
+        <v>44031</v>
+      </c>
+      <c r="B95">
+        <f>A95-A94</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D96">
-        <f>SUM(B3:B292)/COUNT(B3:B292)</f>
-        <v>24.521739130434781</v>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D97">
+        <f>SUM(B3:B293)/COUNT(B3:B293)</f>
+        <v>24.50537634408602</v>
       </c>
     </row>
   </sheetData>

--- a/mens.xlsx
+++ b/mens.xlsx
@@ -361,10 +361,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94:B95"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C80" s="2"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>43598</v>
       </c>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="C81" s="2"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>43622</v>
       </c>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="C82" s="2"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>43644</v>
       </c>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="C83" s="2"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>43669</v>
       </c>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="C84" s="2"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>43692</v>
       </c>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="C85" s="2"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>43723</v>
       </c>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C86" s="2"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>43738</v>
       </c>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="C87" s="2"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>43795</v>
       </c>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="C88" s="2"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>43864</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>43878</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>43898</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <f>A91+27</f>
         <v>43925</v>
@@ -1256,7 +1256,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>43952</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>44008</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>44031</v>
       </c>
@@ -1282,15 +1282,25 @@
         <f>A95-A94</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D96" t="s">
+      <c r="F95" s="2">
+        <f>A95+B95</f>
+        <v>44054</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="2"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="2"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D98" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D97">
-        <f>SUM(B3:B293)/COUNT(B3:B293)</f>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D99">
+        <f>SUM(B3:B295)/COUNT(B3:B295)</f>
         <v>24.50537634408602</v>
       </c>
     </row>
